--- a/ConfigData/Xlsx/BattleMap.xlsx
+++ b/ConfigData/Xlsx/BattleMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1257,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1291,7 +1291,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">

--- a/ConfigData/Xlsx/BattleMap.xlsx
+++ b/ConfigData/Xlsx/BattleMap.xlsx
@@ -90,32 +90,28 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>0;4;51018002;2;1;51018003;2;7;51018003</t>
-  </si>
-  <si>
-    <t>19;4;51018002;17;1;51018003;17;7;51018003</t>
-  </si>
-  <si>
-    <t>0;2;51018002</t>
-  </si>
-  <si>
-    <t>10;2;51018002</t>
-  </si>
-  <si>
-    <t>8;4;51018002</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;51018002</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>9;2;51018002</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>14;4;51018002</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>1;2;51018001</t>
+  </si>
+  <si>
+    <t>9;2;51018001</t>
+  </si>
+  <si>
+    <t>0;2;51018001</t>
+  </si>
+  <si>
+    <t>10;2;51018001</t>
+  </si>
+  <si>
+    <t>8;4;51018001</t>
+  </si>
+  <si>
+    <t>14;4;51018001</t>
+  </si>
+  <si>
+    <t>0;4;51018001;2;1;51018002;2;7;51018002</t>
+  </si>
+  <si>
+    <t>19;4;51018001;17;1;51018002;17;7;51018002</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1167,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1251,10 +1247,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
@@ -1268,10 +1264,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
@@ -1305,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>

--- a/ConfigData/Xlsx/BattleMap.xlsx
+++ b/ConfigData/Xlsx/BattleMap.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>string</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -112,6 +112,42 @@
   </si>
   <si>
     <t>19;4;51018001;17;1;51018002;17;7;51018002</t>
+  </si>
+  <si>
+    <t>均衡列</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnMiddle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞争列</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnCompete</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9;10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7;8;9;10;11;12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5;6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;4;5;6;7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;9;10;11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -808,7 +844,13 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -817,6 +859,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -829,15 +939,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F7" totalsRowShown="0">
-  <autoFilter ref="A3:F7"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H7" totalsRowShown="0">
+  <autoFilter ref="A3:H7"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
     <tableColumn id="3" name="Cname"/>
     <tableColumn id="4" name="LeftMon"/>
-    <tableColumn id="5" name="RightMon" dataDxfId="1"/>
-    <tableColumn id="6" name="TowerStar" dataDxfId="0"/>
+    <tableColumn id="5" name="RightMon" dataDxfId="3"/>
+    <tableColumn id="6" name="TowerStar" dataDxfId="2"/>
+    <tableColumn id="7" name="ColumnMiddle" dataDxfId="1"/>
+    <tableColumn id="8" name="ColumnCompete" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -851,7 +963,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1164,22 +1276,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="27.75" customWidth="1"/>
     <col min="5" max="5" width="28.125" customWidth="1"/>
+    <col min="6" max="6" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1198,8 +1311,14 @@
       <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1218,8 +1337,14 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1238,8 +1363,14 @@
       <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1255,8 +1386,14 @@
       <c r="F4" s="5">
         <v>3</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1272,8 +1409,14 @@
       <c r="F5" s="5">
         <v>2</v>
       </c>
+      <c r="G5" s="5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1289,8 +1432,14 @@
       <c r="F6" s="5">
         <v>3</v>
       </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1305,13 +1454,20 @@
       </c>
       <c r="F7" s="5">
         <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ConfigData/Xlsx/BattleMap.xlsx
+++ b/ConfigData/Xlsx/BattleMap.xlsx
@@ -90,30 +90,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1;2;51018001</t>
-  </si>
-  <si>
-    <t>9;2;51018001</t>
-  </si>
-  <si>
-    <t>0;2;51018001</t>
-  </si>
-  <si>
-    <t>10;2;51018001</t>
-  </si>
-  <si>
-    <t>8;4;51018001</t>
-  </si>
-  <si>
-    <t>14;4;51018001</t>
-  </si>
-  <si>
-    <t>0;4;51018001;2;1;51018002;2;7;51018002</t>
-  </si>
-  <si>
-    <t>19;4;51018001;17;1;51018002;17;7;51018002</t>
-  </si>
-  <si>
     <t>均衡列</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -147,6 +123,38 @@
   </si>
   <si>
     <t>8;9;10;11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>510180010;4;;51018002;2;1;51018002;2;7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51018001;19;4;51018002;17;1;51018002;17;7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51018001;1;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51018001;0;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51018001;10;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51018001;9;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51018001;8;4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51018001;14;4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1279,7 +1287,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1287,8 +1295,8 @@
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="27.75" customWidth="1"/>
-    <col min="5" max="5" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="49.25" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
     <col min="6" max="6" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1312,10 +1320,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1364,10 +1372,10 @@
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1378,19 +1386,19 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1401,10 +1409,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
@@ -1413,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1424,10 +1432,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5">
         <v>3</v>
@@ -1436,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1447,19 +1455,19 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
